--- a/dataSources/WSR/PIW.xlsx
+++ b/dataSources/WSR/PIW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE6E0D1E-74CF-49AE-B71E-ABFDC7C524DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD558FC-A229-4423-8F28-EBA9AECBA3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Week Count</t>
   </si>
   <si>
-    <t>Total Data Type</t>
-  </si>
-  <si>
     <t>Total Count</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Automation coverage %</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
@@ -719,40 +719,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0778C-2ADA-4959-BFFB-978F0ACED6E4}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="31.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="14.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="31.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="2"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="14.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="2"/>
+    <col min="27" max="27" width="8.88671875" style="2"/>
     <col min="28" max="29" width="18" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="2"/>
+    <col min="30" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -823,72 +823,72 @@
       </c>
       <c r="AA1" s="12"/>
       <c r="AB1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="25">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="25">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="N2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" s="9"/>
       <c r="Y2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="28">
         <v>715</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="28">
         <v>858</v>
@@ -896,30 +896,30 @@
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="25">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="25">
         <v>19</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="14"/>
@@ -932,14 +932,14 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="Y3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="28">
         <v>715</v>
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="28">
         <v>969</v>
@@ -949,16 +949,16 @@
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="25">
         <v>8</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -974,14 +974,14 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="Y4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z4" s="28">
         <v>0</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="28">
         <v>0</v>
@@ -991,10 +991,10 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="G5" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1010,14 +1010,14 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="Y5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z5" s="28">
         <v>0</v>
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC5" s="28">
         <v>0</v>
@@ -1029,14 +1029,14 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="Y6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z6" s="28">
         <v>0</v>
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="28">
         <v>24</v>
@@ -1047,7 +1047,7 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="28">
         <v>0</v>
@@ -1067,18 +1067,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1259,13 +1259,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481829E1-7F78-46F9-BDB6-11979196389B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481829E1-7F78-46F9-BDB6-11979196389B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/PIW.xlsx
+++ b/dataSources/WSR/PIW.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD558FC-A229-4423-8F28-EBA9AECBA3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B6CC2-97EE-48E2-A5CC-C22C1EEA6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Jan 2024" sheetId="8" r:id="rId1"/>
+    <sheet name="15 Jan 2024" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Task Name</t>
   </si>
@@ -169,6 +170,7 @@
         <sz val="11"/>
         <color rgb="FF242424"/>
         <rFont val="Segoe UI"/>
+        <family val="2"/>
       </rPr>
       <t>SDLC  </t>
     </r>
@@ -199,12 +201,44 @@
   <si>
     <t>Project Metrics</t>
   </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> PIW OAS Testing:-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+        <charset val="1"/>
+      </rPr>
+      <t>WMT-2738</t>
+    </r>
+  </si>
+  <si>
+    <t>No Planned activities for PIW and PIW OAS</t>
+  </si>
+  <si>
+    <t>2. Test execution of WNT-2738,PIW Performance SDLC#26763 &amp; 26976 production support</t>
+  </si>
+  <si>
+    <t>2. PIW Performancereports Testing:-Production support for SDLC#26763 &amp; 26976</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +269,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -252,17 +286,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,18 +329,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -365,11 +411,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -392,11 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -412,31 +486,110 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,113 +872,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0778C-2ADA-4959-BFFB-978F0ACED6E4}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="31.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="2"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="14.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="31.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" style="2"/>
+    <col min="17" max="17" width="8.90625" style="2"/>
+    <col min="18" max="18" width="14.6328125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.36328125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="2"/>
+    <col min="27" max="27" width="8.90625" style="2"/>
     <col min="28" max="29" width="18" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2"/>
+    <col min="30" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:29" s="54" customFormat="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="11" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -833,13 +984,13 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="17">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="17">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -854,17 +1005,17 @@
       <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="19" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="Q2" s="9"/>
@@ -883,14 +1034,14 @@
       <c r="Y2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="Z2" s="20">
         <v>715</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="28">
+      <c r="AC2" s="20">
         <v>858</v>
       </c>
     </row>
@@ -898,16 +1049,16 @@
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="17">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="17">
         <v>19</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -915,15 +1066,15 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -934,14 +1085,14 @@
       <c r="Y3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="20">
         <v>715</v>
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="20">
         <v>969</v>
       </c>
     </row>
@@ -951,10 +1102,10 @@
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="17">
         <v>8</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -964,7 +1115,7 @@
       <c r="J4" s="1"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="18"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -976,21 +1127,21 @@
       <c r="Y4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Z4" s="20">
         <v>0</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AC4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="19" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1000,7 +1151,7 @@
       <c r="J5" s="1"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="18"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1012,14 +1163,14 @@
       <c r="Y5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="Z5" s="20">
         <v>0</v>
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1031,54 +1182,472 @@
       <c r="Y6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="Z6" s="20">
         <v>0</v>
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="28">
+      <c r="AC6" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="Y7" s="7"/>
-      <c r="Z7" s="28"/>
+      <c r="Z7" s="20"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AC7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="Y8" s="1"/>
-      <c r="Z8" s="25"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:29">
       <c r="Y9" s="1"/>
-      <c r="Z9" s="25"/>
+      <c r="Z9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A546F1B8-BB98-4668-9CFA-BFBC69A82BF7}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:29" s="51" customFormat="1">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="82" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="24">
+        <v>18</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="218.5" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="24">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="24">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="36">
+        <v>635</v>
+      </c>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="37">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72.5">
+      <c r="A5" s="23"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="43.5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58">
+      <c r="A7" s="22"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="22"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="22"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1259,18 +1828,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dataSources/WSR/PIW.xlsx
+++ b/dataSources/WSR/PIW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B6CC2-97EE-48E2-A5CC-C22C1EEA6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EFCA29-DB9A-4DD8-830C-D696FBE4B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Jan 2024" sheetId="8" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -549,47 +549,40 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,111 +865,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0778C-2ADA-4959-BFFB-978F0ACED6E4}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="2"/>
-    <col min="4" max="4" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="2"/>
-    <col min="7" max="7" width="31.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="2"/>
-    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.08984375" style="2"/>
-    <col min="17" max="17" width="8.90625" style="2"/>
-    <col min="18" max="18" width="14.6328125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.36328125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="31.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="2"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="14.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.90625" style="2"/>
+    <col min="27" max="27" width="8.88671875" style="2"/>
     <col min="28" max="29" width="18" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="2"/>
+    <col min="30" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="54" customFormat="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="Z1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="57" t="s">
+      <c r="AC1" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1221,90 +1214,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A546F1B8-BB98-4668-9CFA-BFBC69A82BF7}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:29" s="51" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="49" t="s">
+      <c r="X1" s="22"/>
+      <c r="Y1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="49" t="s">
+      <c r="Z1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="49" t="s">
+      <c r="AC1" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="82" thickBot="1">
+    <row r="2" spans="1:29" ht="82.8" thickBot="1">
       <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1352,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="218.5" thickBot="1">
+    <row r="3" spans="1:29" ht="197.4" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +1403,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="23"/>
       <c r="B4" s="38"/>
       <c r="C4" s="22"/>
@@ -1449,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="23"/>
       <c r="B5" s="38"/>
       <c r="C5" s="22"/>
@@ -1488,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="22"/>
       <c r="B6" s="40"/>
       <c r="C6" s="22"/>
@@ -1508,8 +1501,8 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -1527,7 +1520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="22"/>
       <c r="B7" s="40"/>
       <c r="C7" s="22"/>
@@ -1547,8 +1540,8 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
@@ -1582,8 +1575,8 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
@@ -1613,8 +1606,8 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
@@ -1636,18 +1629,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1828,18 +1821,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dataSources/WSR/PIW.xlsx
+++ b/dataSources/WSR/PIW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EFCA29-DB9A-4DD8-830C-D696FBE4B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB365813-1A98-448D-9BF6-4C5EE241F572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>Task Name</t>
   </si>
@@ -96,15 +96,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Week Data Type</t>
-  </si>
-  <si>
-    <t>Week Count</t>
-  </si>
-  <si>
-    <t>Total Count</t>
-  </si>
-  <si>
     <t>1.Standup /Internal/Dev calls</t>
   </si>
   <si>
@@ -129,12 +120,6 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
     <t>2. Test execution</t>
   </si>
   <si>
@@ -147,22 +132,10 @@
     <t>2.Production support for SDLC 26972,26763</t>
   </si>
   <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
     <t>Kalyan Gopi</t>
   </si>
   <si>
     <t>WMT-2738</t>
-  </si>
-  <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
   </si>
   <si>
     <r>
@@ -182,24 +155,6 @@
       </rPr>
       <t>26972,26763</t>
     </r>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
-  </si>
-  <si>
-    <t>Project Metrics</t>
   </si>
   <si>
     <r>
@@ -232,6 +187,36 @@
   </si>
   <si>
     <t>2. PIW Performancereports Testing:-Production support for SDLC#26763 &amp; 26976</t>
+  </si>
+  <si>
+    <t>Activity This Week</t>
+  </si>
+  <si>
+    <t>Count.</t>
+  </si>
+  <si>
+    <t>Project Metrics Since Inception</t>
+  </si>
+  <si>
+    <t>Count..</t>
+  </si>
+  <si>
+    <t>Manual test cases created</t>
+  </si>
+  <si>
+    <t>Manual test cases conducted</t>
+  </si>
+  <si>
+    <t>Automation test cases created</t>
+  </si>
+  <si>
+    <t>Automation test cases processed</t>
+  </si>
+  <si>
+    <t>Bugs identified</t>
+  </si>
+  <si>
+    <t>Automation coverage</t>
   </si>
 </sst>
 </file>
@@ -448,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -461,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -527,9 +509,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -561,8 +540,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -576,7 +553,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -866,7 +842,7 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -902,190 +878,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="52" t="s">
-        <v>21</v>
+      <c r="Y1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="16">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="16">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="N2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="Y2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="20">
+      <c r="S2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="19">
         <v>715</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="20">
+      <c r="AA2" s="7"/>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="19">
         <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="17">
+        <v>27</v>
+      </c>
+      <c r="B3" s="16">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="17">
+        <v>28</v>
+      </c>
+      <c r="E3" s="16">
         <v>19</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>34</v>
+      <c r="G3" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="Y3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="20">
+      <c r="L3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="19">
         <v>715</v>
       </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="20">
+      <c r="AA3" s="7"/>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="19">
         <v>969</v>
       </c>
     </row>
@@ -1093,77 +1069,77 @@
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="17">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16">
         <v>8</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>39</v>
+      <c r="G4" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="Y4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="20">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="Y4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="19">
         <v>0</v>
       </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="20">
+      <c r="AA4" s="7"/>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
-      <c r="G5" s="19" t="s">
-        <v>42</v>
+      <c r="G5" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="Y5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="20">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="19">
         <v>0</v>
       </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" s="20">
+      <c r="AA5" s="7"/>
+      <c r="AB5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1172,38 +1148,38 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="Y6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="20">
+      <c r="Y6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="19">
         <v>0</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="5" t="s">
+      <c r="AA6" s="7"/>
+      <c r="AB6" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="19">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1">
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="5" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="Y8" s="1"/>
-      <c r="Z8" s="17"/>
+      <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:29">
       <c r="Y9" s="1"/>
-      <c r="Z9" s="17"/>
+      <c r="Z9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,408 +1190,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A546F1B8-BB98-4668-9CFA-BFBC69A82BF7}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="T3" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="44" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="46" t="s">
-        <v>21</v>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="82.8" thickBot="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="23">
+        <v>4</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="23">
+        <v>18</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="24">
-        <v>4</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="24">
-        <v>18</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="24">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="23">
         <v>45</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="24">
+      <c r="AA2" s="20"/>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="23">
         <v>903</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="197.4" thickBot="1">
-      <c r="A3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="23">
         <v>26</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="23">
         <v>12</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="36">
+      <c r="F3" s="21"/>
+      <c r="G3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="34">
         <v>635</v>
       </c>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="AA3" s="20"/>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="35">
         <v>1604</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="24">
+    <row r="4" spans="1:29" ht="15.6">
+      <c r="A4" s="22"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="23">
         <v>0</v>
       </c>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="24">
+      <c r="AA4" s="20"/>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
-      <c r="A5" s="23"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="24">
+    <row r="5" spans="1:29">
+      <c r="A5" s="22"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="23">
         <v>0</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" s="24">
+      <c r="AA5" s="20"/>
+      <c r="AB5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
-      <c r="A6" s="22"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="24">
+    <row r="6" spans="1:29">
+      <c r="A6" s="21"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="23">
         <v>0</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="32" t="s">
+      <c r="AA6" s="20"/>
+      <c r="AB6" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="32" t="s">
+    <row r="7" spans="1:29">
+      <c r="A7" s="21"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="24">
+      <c r="AC7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="22"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1629,21 +1604,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -1820,24 +1780,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481829E1-7F78-46F9-BDB6-11979196389B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1854,4 +1812,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/PIW.xlsx
+++ b/dataSources/WSR/PIW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB365813-1A98-448D-9BF6-4C5EE241F572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B6CC2-97EE-48E2-A5CC-C22C1EEA6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Jan 2024" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Task Name</t>
   </si>
@@ -96,6 +96,15 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Week Data Type</t>
+  </si>
+  <si>
+    <t>Week Count</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
     <t>1.Standup /Internal/Dev calls</t>
   </si>
   <si>
@@ -120,6 +129,12 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
     <t>2. Test execution</t>
   </si>
   <si>
@@ -132,10 +147,22 @@
     <t>2.Production support for SDLC 26972,26763</t>
   </si>
   <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
     <t>Kalyan Gopi</t>
   </si>
   <si>
     <t>WMT-2738</t>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
   </si>
   <si>
     <r>
@@ -155,6 +182,24 @@
       </rPr>
       <t>26972,26763</t>
     </r>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
   <si>
     <r>
@@ -187,36 +232,6 @@
   </si>
   <si>
     <t>2. PIW Performancereports Testing:-Production support for SDLC#26763 &amp; 26976</t>
-  </si>
-  <si>
-    <t>Activity This Week</t>
-  </si>
-  <si>
-    <t>Count.</t>
-  </si>
-  <si>
-    <t>Project Metrics Since Inception</t>
-  </si>
-  <si>
-    <t>Count..</t>
-  </si>
-  <si>
-    <t>Manual test cases created</t>
-  </si>
-  <si>
-    <t>Manual test cases conducted</t>
-  </si>
-  <si>
-    <t>Automation test cases created</t>
-  </si>
-  <si>
-    <t>Automation test cases processed</t>
-  </si>
-  <si>
-    <t>Bugs identified</t>
-  </si>
-  <si>
-    <t>Automation coverage</t>
   </si>
 </sst>
 </file>
@@ -433,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,6 +461,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -508,6 +526,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,37 +549,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,227 +872,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0778C-2ADA-4959-BFFB-978F0ACED6E4}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="31.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="2"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="14.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2"/>
+    <col min="7" max="7" width="31.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2"/>
+    <col min="12" max="12" width="89.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" style="2"/>
+    <col min="17" max="17" width="8.90625" style="2"/>
+    <col min="18" max="18" width="14.6328125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.36328125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="2"/>
+    <col min="27" max="27" width="8.90625" style="2"/>
     <col min="28" max="29" width="18" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2"/>
+    <col min="30" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:29" s="54" customFormat="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1"/>
-      <c r="AB1" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="48" t="s">
-        <v>41</v>
+      <c r="Y1" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="57" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="17">
         <v>19</v>
       </c>
-      <c r="B2" s="16">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16">
-        <v>19</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="8"/>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="19">
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="Y2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="20">
         <v>715</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="19">
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="20">
         <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="16">
+        <v>32</v>
+      </c>
+      <c r="B3" s="17">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="16">
+        <v>33</v>
+      </c>
+      <c r="E3" s="17">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>29</v>
+      <c r="G3" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="19">
+      <c r="L3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="Y3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="20">
         <v>715</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3" s="19">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="20">
         <v>969</v>
       </c>
     </row>
@@ -1069,77 +1100,77 @@
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="16">
+        <v>38</v>
+      </c>
+      <c r="E4" s="17">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>32</v>
+      <c r="G4" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="19">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="Y4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="20">
         <v>0</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="19">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
-      <c r="G5" s="18" t="s">
-        <v>33</v>
+      <c r="G5" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="19">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="Y5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="20">
         <v>0</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="19">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1148,38 +1179,38 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="Y6" t="s">
+      <c r="Y6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1">
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" t="s">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="AC7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="Y8" s="1"/>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:29">
       <c r="Y9" s="1"/>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1190,407 +1221,408 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A546F1B8-BB98-4668-9CFA-BFBC69A82BF7}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="T3" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:29" s="51" customFormat="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="48" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="82" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="24">
+        <v>18</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="218.5" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="24">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="24">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="36">
+        <v>635</v>
+      </c>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="37">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="Z4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="32" t="s">
         <v>41</v>
       </c>
+      <c r="AC4" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" ht="82.8" thickBot="1">
-      <c r="A2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="23">
-        <v>4</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="23">
-        <v>18</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="23">
+    <row r="5" spans="1:29" ht="72.5">
+      <c r="A5" s="23"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="43.5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="20"/>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="23">
-        <v>903</v>
+      <c r="Z6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="197.4" thickBot="1">
-      <c r="A3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="23">
-        <v>26</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="23">
-        <v>12</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>635</v>
-      </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3" s="35">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.6">
-      <c r="A4" s="22"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="20"/>
-      <c r="AB4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="22"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="21"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" s="23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="21"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" t="s">
+    <row r="7" spans="1:29" ht="58">
+      <c r="A7" s="22"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="21"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="21"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1604,6 +1636,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -1780,22 +1827,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481829E1-7F78-46F9-BDB6-11979196389B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1812,21 +1861,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>